--- a/src/main/resources/template.xlsx
+++ b/src/main/resources/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lyx/my-dir/projects/liqi-assit/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F931EDF8-F840-5846-A163-DDD8E783F883}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E1987B-0D06-E843-9C89-220FA20DEEC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -191,10 +191,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>t.pP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>t.pQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -268,6 +264,10 @@
   </si>
   <si>
     <t>t.pAH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.overdueDays</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -653,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="17"/>
@@ -671,7 +671,9 @@
     <col min="10" max="10" width="11.33203125" style="2" customWidth="1"/>
     <col min="11" max="11" width="22.83203125" style="2" customWidth="1"/>
     <col min="12" max="12" width="34" style="7" customWidth="1"/>
-    <col min="13" max="17" width="15" style="2" customWidth="1"/>
+    <col min="13" max="15" width="15" style="2" customWidth="1"/>
+    <col min="16" max="16" width="19.5" style="7" customWidth="1"/>
+    <col min="17" max="17" width="15" style="2" customWidth="1"/>
     <col min="18" max="18" width="22.83203125" style="2" customWidth="1"/>
     <col min="19" max="19" width="16.33203125" style="2" customWidth="1"/>
     <col min="20" max="20" width="13.83203125" style="2" customWidth="1"/>
@@ -775,7 +777,7 @@
         <v>26</v>
       </c>
       <c r="AB1" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AC1" s="3" t="s">
         <v>27</v>
@@ -842,62 +844,62 @@
       <c r="O2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="W2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="X2" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="Y2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Z2" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="AA2" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AB2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD2" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="AB2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AD2" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/template.xlsx
+++ b/src/main/resources/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lyx/my-dir/projects/liqi-assit/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E1987B-0D06-E843-9C89-220FA20DEEC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DE1992-745E-2548-A50E-B8D0E4152072}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -255,10 +255,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>t.pAF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>t.pAG</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -268,6 +264,10 @@
   </si>
   <si>
     <t>t.overdueDays</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.remark</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -653,13 +653,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="X1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH5" sqref="AH5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="27.5" style="7" customWidth="1"/>
+    <col min="1" max="1" width="34.5" style="7" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="15" style="2" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" style="7" customWidth="1"/>
@@ -688,7 +688,7 @@
     <col min="29" max="29" width="16.33203125" style="2" customWidth="1"/>
     <col min="30" max="30" width="30.33203125" style="7" customWidth="1"/>
     <col min="31" max="31" width="16.33203125" style="2" customWidth="1"/>
-    <col min="32" max="32" width="9" style="2" customWidth="1"/>
+    <col min="32" max="32" width="17" style="7" customWidth="1"/>
     <col min="33" max="33" width="16.33203125" style="2" customWidth="1"/>
     <col min="34" max="34" width="26.6640625" style="2" customWidth="1"/>
     <col min="35" max="16384" width="10" style="2"/>
@@ -788,7 +788,7 @@
       <c r="AE1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AF1" s="3" t="s">
         <v>30</v>
       </c>
       <c r="AG1" s="4" t="s">
@@ -845,7 +845,7 @@
         <v>47</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>48</v>
@@ -892,14 +892,14 @@
       <c r="AE2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AF2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
